--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D75D02-900A-4F0B-9F23-161AEDC7980F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC946B-19B6-4B1A-A3C0-DBD5DE964F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
@@ -4505,7 +4505,7 @@
   <dimension ref="C2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,11 +4587,11 @@
         <v>30.588782813991656</v>
       </c>
       <c r="M4" s="4">
-        <v>30.856069999999999</v>
+        <v>30.856059999999999</v>
       </c>
       <c r="N4" s="4">
         <f>100*(L4-M4)/L4</f>
-        <v>-0.87380785183149678</v>
+        <v>-0.87377516010897738</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -4624,11 +4624,11 @@
         <v>50.211458153435842</v>
       </c>
       <c r="M5" s="4">
-        <v>49.436709999999998</v>
+        <v>49.436660000000003</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
-        <v>1.542970831614517</v>
+        <v>1.543070410479249</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
@@ -4661,11 +4661,11 @@
         <v>67.33821280765153</v>
       </c>
       <c r="M6" s="4">
-        <v>65.856629999999996</v>
+        <v>65.856539999999995</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="4"/>
-        <v>2.2002110627491804</v>
+        <v>2.200344716429977</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
@@ -4698,11 +4698,11 @@
         <v>82.092509521268425</v>
       </c>
       <c r="M7" s="4">
-        <v>80.150530000000003</v>
+        <v>80.150400000000005</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="4"/>
-        <v>2.3655989232066252</v>
+        <v>2.3657572811381304</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -4735,11 +4735,11 @@
         <v>94.574245783979563</v>
       </c>
       <c r="M8" s="4">
-        <v>92.347719999999995</v>
+        <v>92.347549999999998</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="4"/>
-        <v>2.354262268255626</v>
+        <v>2.3544420212090733</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -4773,11 +4773,11 @@
         <v>104.86358822963905</v>
       </c>
       <c r="M9" s="4">
-        <v>102.4726</v>
+        <v>102.47239999999999</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="4"/>
-        <v>2.2800938533622017</v>
+        <v>2.2802845773335849</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
@@ -4810,11 +4810,11 @@
         <v>113.02380427492369</v>
       </c>
       <c r="M10" s="4">
-        <v>110.5449</v>
+        <v>110.54470000000001</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="4"/>
-        <v>2.1932585713483022</v>
+        <v>2.1934355252221125</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
@@ -4841,11 +4841,11 @@
         <v>119.10334602545174</v>
       </c>
       <c r="M11" s="4">
-        <v>116.5802</v>
+        <v>116.58</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>2.1184510004551464</v>
+        <v>2.1186189218500364</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="D12" s="4">
         <f>MAX(N4:N23)</f>
-        <v>2.7266793698010878</v>
+        <v>2.7268620904912941</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -4879,11 +4879,11 @@
         <v>123.13735789369559</v>
       </c>
       <c r="M12" s="4">
-        <v>120.59</v>
+        <v>120.5898</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="4"/>
-        <v>2.0687124827663776</v>
+        <v>2.0688749030127007</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
@@ -4910,11 +4910,11 @@
         <v>125.14872291630638</v>
       </c>
       <c r="M13" s="4">
-        <v>122.5818</v>
+        <v>122.58150000000001</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="4"/>
-        <v>2.0510979708702419</v>
+        <v>2.0513376856615757</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
@@ -4941,11 +4941,11 @@
         <v>125.14872291630638</v>
       </c>
       <c r="M14" s="4">
-        <v>122.55929999999999</v>
+        <v>122.559</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="4"/>
-        <v>2.0690765802205386</v>
+        <v>2.0693162950118724</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
@@ -4972,11 +4972,11 @@
         <v>123.13735789369559</v>
       </c>
       <c r="M15" s="4">
-        <v>120.52249999999999</v>
+        <v>120.5222</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="4"/>
-        <v>2.1235293158985962</v>
+        <v>2.123772946268069</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
@@ -5007,11 +5007,11 @@
         <v>119.10334602545174</v>
       </c>
       <c r="M16" s="4">
-        <v>116.4675</v>
+        <v>116.46729999999999</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="4"/>
-        <v>2.2130747064725411</v>
+        <v>2.2132426278674311</v>
       </c>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.3">
@@ -5038,11 +5038,11 @@
         <v>113.02380427492392</v>
       </c>
       <c r="M17" s="4">
-        <v>110.38679999999999</v>
+        <v>110.3866</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="4"/>
-        <v>2.3331406086009663</v>
+        <v>2.3333175624747766</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.3">
@@ -5069,11 +5069,11 @@
         <v>104.86358822963905</v>
       </c>
       <c r="M18" s="4">
-        <v>102.2688</v>
+        <v>102.26860000000001</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="4"/>
-        <v>2.4744415801953736</v>
+        <v>2.4746323041667435</v>
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.3">
@@ -5100,11 +5100,11 @@
         <v>94.574245783979336</v>
       </c>
       <c r="M19" s="4">
-        <v>92.09787</v>
+        <v>92.09769</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="4"/>
-        <v>2.6184462413115308</v>
+        <v>2.6186365679681254</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.3">
@@ -5131,11 +5131,11 @@
         <v>82.092509521268425</v>
       </c>
       <c r="M20" s="4">
-        <v>79.854110000000006</v>
+        <v>79.853960000000001</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="4"/>
-        <v>2.7266793698010878</v>
+        <v>2.7268620904912941</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.3">
@@ -5162,11 +5162,11 @@
         <v>67.33821280765153</v>
       </c>
       <c r="M21" s="4">
-        <v>65.513040000000004</v>
+        <v>65.512929999999997</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="4"/>
-        <v>2.7104562648032364</v>
+        <v>2.7106196193019976</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.3">
@@ -5193,11 +5193,11 @@
         <v>50.211458153435728</v>
       </c>
       <c r="M22" s="4">
-        <v>49.045229999999997</v>
+        <v>49.045160000000003</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="4"/>
-        <v>2.3226335110045646</v>
+        <v>2.3227729214151922</v>
       </c>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.3">
@@ -5224,11 +5224,11 @@
         <v>30.588782813991656</v>
       </c>
       <c r="M23" s="4">
-        <v>30.415859999999999</v>
+        <v>30.415839999999999</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="4"/>
-        <v>0.56531446525084028</v>
+        <v>0.56537984869587921</v>
       </c>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.3">

--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC946B-19B6-4B1A-A3C0-DBD5DE964F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BCA80-8345-4145-83D2-0088051701E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="heat1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="heat6" sheetId="8" r:id="rId6"/>
     <sheet name="heat7" sheetId="10" r:id="rId7"/>
     <sheet name="heat8" sheetId="12" r:id="rId8"/>
+    <sheet name="heat10" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
   <si>
     <t>cells</t>
   </si>
@@ -4504,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86483D6-782B-46AD-A96F-9F92954B158D}">
   <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,11 +4588,11 @@
         <v>30.588782813991656</v>
       </c>
       <c r="M4" s="4">
-        <v>30.856059999999999</v>
+        <v>30.658840000000001</v>
       </c>
       <c r="N4" s="4">
         <f>100*(L4-M4)/L4</f>
-        <v>-0.87377516010897738</v>
+        <v>-0.2290290085563654</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -4624,11 +4625,11 @@
         <v>50.211458153435842</v>
       </c>
       <c r="M5" s="4">
-        <v>49.436660000000003</v>
+        <v>49.313220000000001</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
-        <v>1.543070410479249</v>
+        <v>1.7889107117562904</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
@@ -4661,11 +4662,11 @@
         <v>67.33821280765153</v>
       </c>
       <c r="M6" s="4">
-        <v>65.856539999999995</v>
+        <v>65.786209999999997</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="4"/>
-        <v>2.200344716429977</v>
+        <v>2.3047876427679435</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
@@ -4698,11 +4699,11 @@
         <v>82.092509521268425</v>
       </c>
       <c r="M7" s="4">
-        <v>80.150400000000005</v>
+        <v>80.115629999999996</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="4"/>
-        <v>2.3657572811381304</v>
+        <v>2.4081119371265682</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -4735,11 +4736,11 @@
         <v>94.574245783979563</v>
       </c>
       <c r="M8" s="4">
-        <v>92.347549999999998</v>
+        <v>92.333569999999995</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="4"/>
-        <v>2.3544420212090733</v>
+        <v>2.369224058204574</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -4773,11 +4774,11 @@
         <v>104.86358822963905</v>
       </c>
       <c r="M9" s="4">
-        <v>102.47239999999999</v>
+        <v>102.4669</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="4"/>
-        <v>2.2802845773335849</v>
+        <v>2.2855294865464506</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
@@ -4810,11 +4811,11 @@
         <v>113.02380427492369</v>
       </c>
       <c r="M10" s="4">
-        <v>110.54470000000001</v>
+        <v>110.53789999999999</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="4"/>
-        <v>2.1934355252221125</v>
+        <v>2.1994519569319073</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
@@ -4841,11 +4842,11 @@
         <v>119.10334602545174</v>
       </c>
       <c r="M11" s="4">
-        <v>116.58</v>
+        <v>116.56399999999999</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>2.1186189218500364</v>
+        <v>2.1320526334407974</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -4854,7 +4855,7 @@
       </c>
       <c r="D12" s="4">
         <f>MAX(N4:N23)</f>
-        <v>2.7268620904912941</v>
+        <v>2.8850982082047523</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -4879,11 +4880,11 @@
         <v>123.13735789369559</v>
       </c>
       <c r="M12" s="4">
-        <v>120.5898</v>
+        <v>120.55889999999999</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="4"/>
-        <v>2.0688749030127007</v>
+        <v>2.0939688310687816</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
@@ -4910,11 +4911,11 @@
         <v>125.14872291630638</v>
       </c>
       <c r="M13" s="4">
-        <v>122.58150000000001</v>
+        <v>122.532</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="4"/>
-        <v>2.0513376856615757</v>
+        <v>2.0908906262322215</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
@@ -4941,11 +4942,11 @@
         <v>125.14872291630638</v>
       </c>
       <c r="M14" s="4">
-        <v>122.559</v>
+        <v>122.4888</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="4"/>
-        <v>2.0693162950118724</v>
+        <v>2.1254095561847781</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
@@ -4972,11 +4973,11 @@
         <v>123.13735789369559</v>
       </c>
       <c r="M15" s="4">
-        <v>120.5222</v>
+        <v>120.43129999999999</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="4"/>
-        <v>2.123772946268069</v>
+        <v>2.1975929482194498</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
@@ -5007,11 +5008,11 @@
         <v>119.10334602545174</v>
       </c>
       <c r="M16" s="4">
-        <v>116.46729999999999</v>
+        <v>116.3574</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="4"/>
-        <v>2.2132426278674311</v>
+        <v>2.3055154343564368</v>
       </c>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.3">
@@ -5038,11 +5039,11 @@
         <v>113.02380427492392</v>
       </c>
       <c r="M17" s="4">
-        <v>110.3866</v>
+        <v>110.26130000000001</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="4"/>
-        <v>2.3333175624747766</v>
+        <v>2.4441791644212221</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.3">
@@ -5069,11 +5070,11 @@
         <v>104.86358822963905</v>
       </c>
       <c r="M18" s="4">
-        <v>102.26860000000001</v>
+        <v>102.1335</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="4"/>
-        <v>2.4746323041667435</v>
+        <v>2.6034663468319201</v>
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.3">
@@ -5100,11 +5101,11 @@
         <v>94.574245783979336</v>
       </c>
       <c r="M19" s="4">
-        <v>92.09769</v>
+        <v>91.960350000000005</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="4"/>
-        <v>2.6186365679681254</v>
+        <v>2.7638558069496324</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.3">
@@ -5131,11 +5132,11 @@
         <v>82.092509521268425</v>
       </c>
       <c r="M20" s="4">
-        <v>79.853960000000001</v>
+        <v>79.724059999999994</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="4"/>
-        <v>2.7268620904912941</v>
+        <v>2.8850982082047523</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.3">
@@ -5162,11 +5163,11 @@
         <v>67.33821280765153</v>
       </c>
       <c r="M21" s="4">
-        <v>65.512929999999997</v>
+        <v>65.402439999999999</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="4"/>
-        <v>2.7106196193019976</v>
+        <v>2.8747017880931534</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.3">
@@ -5193,11 +5194,11 @@
         <v>50.211458153435728</v>
       </c>
       <c r="M22" s="4">
-        <v>49.045160000000003</v>
+        <v>48.96855</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="4"/>
-        <v>2.3227729214151922</v>
+        <v>2.4753476579741229</v>
       </c>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.3">
@@ -5224,11 +5225,11 @@
         <v>30.588782813991656</v>
       </c>
       <c r="M23" s="4">
-        <v>30.415839999999999</v>
+        <v>30.390319999999999</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="4"/>
-        <v>0.56537984869587921</v>
+        <v>0.64880912456862516</v>
       </c>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.3">
@@ -5332,4 +5333,702 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DBD4C4-7704-4BD1-9090-5D85E337D482}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$4-$D$3)*LN($G4/$D$7)</f>
+        <v>128.2404601085629</v>
+      </c>
+      <c r="I4" s="4">
+        <v>31.129190000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>75.725921465310293</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$G4+$D$8</f>
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H28" si="0">$D$3+($D$4-$D$3)*LN($G5/$D$7)</f>
+        <v>106.26821433520072</v>
+      </c>
+      <c r="I5" s="4">
+        <v>51.161729999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="1">100*(H5-I5)/H5</f>
+        <v>51.856036802668875</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>$G5+$D$8</f>
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>96.051701859880907</v>
+      </c>
+      <c r="I6" s="4">
+        <v>68.968440000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>28.196545543138473</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>$G6+$D$8</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>89.322257127456652</v>
+      </c>
+      <c r="I7" s="4">
+        <v>84.549300000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3435249857669538</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f>$G7+$D$8</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>84.295968561838535</v>
+      </c>
+      <c r="I8" s="4">
+        <v>97.904330000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>-16.143549531883643</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f>$G8+$D$8</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>80.282554652595508</v>
+      </c>
+      <c r="I9" s="4">
+        <v>109.0335</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>-35.81219540386784</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f>$G9+$D$8</f>
+        <v>0.13</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>76.941472959332188</v>
+      </c>
+      <c r="I10" s="4">
+        <v>117.93689999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>-53.281313008312374</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(N4:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f>$G10+$D$8</f>
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>74.079456086518718</v>
+      </c>
+      <c r="I11" s="4">
+        <v>124.6144</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>-68.217217813344391</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f>$G11+$D$8</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>71.576193227438608</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.06610000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>-80.319871985763484</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f>$G12+$D$8</f>
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>69.351680525234116</v>
+      </c>
+      <c r="I13" s="4">
+        <v>131.2919</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>-89.313220682847742</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f>$G13+$D$8</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>67.350011354094462</v>
+      </c>
+      <c r="I14" s="4">
+        <v>131.2919</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>-94.939685028008938</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f>$G14+$D$8</f>
+        <v>0.22999999999999995</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>65.530575789979935</v>
+      </c>
+      <c r="I15" s="4">
+        <v>129.06610000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>-96.955540896887825</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>$G15+$D$8</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>63.862943611198908</v>
+      </c>
+      <c r="I16" s="4">
+        <v>124.6144</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>-95.127867513685686</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f>$G16+$D$8</f>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>62.323722788476346</v>
+      </c>
+      <c r="I17" s="4">
+        <v>117.93689999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>-89.232758768714831</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f>$G17+$D$8</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>60.894543508833443</v>
+      </c>
+      <c r="I18" s="4">
+        <v>109.0335</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>-79.052988522992152</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f>$G18+$D$8</f>
+        <v>0.31</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>59.560716018859992</v>
+      </c>
+      <c r="I19" s="4">
+        <v>97.904330000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>-64.37735565334448</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f>$G19+$D$8</f>
+        <v>0.33</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>58.310308879233318</v>
+      </c>
+      <c r="I20" s="4">
+        <v>84.549300000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>-44.998888918785099</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f>$G20+$D$8</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>57.133498878774645</v>
+      </c>
+      <c r="I21" s="4">
+        <v>68.968440000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>-20.714539374416102</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f>$G21+$D$8</f>
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>56.022101855678429</v>
+      </c>
+      <c r="I22" s="4">
+        <v>51.161729999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6758113221090802</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f>$G22+$D$8</f>
+        <v>0.39000000000000007</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>54.969227185969991</v>
+      </c>
+      <c r="I23" s="4">
+        <v>31.129190000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>43.369787800209018</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:G28" si="2">$G23+$D$8</f>
+        <v>0.41000000000000009</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>53.969018774476758</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4300000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>53.016457794691668</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>52.107210313156521</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000014</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>51.237508074361742</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49000000000000016</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>50.404054146350383</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BCA80-8345-4145-83D2-0088051701E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2963A-5DF6-44EB-AEC8-5B6FFC92DB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="13" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="heat1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,12 @@
     <sheet name="heat6" sheetId="8" r:id="rId6"/>
     <sheet name="heat7" sheetId="10" r:id="rId7"/>
     <sheet name="heat8" sheetId="12" r:id="rId8"/>
-    <sheet name="heat10" sheetId="14" r:id="rId9"/>
+    <sheet name="heat9" sheetId="15" r:id="rId9"/>
+    <sheet name="heat10" sheetId="14" r:id="rId10"/>
+    <sheet name="heat11" sheetId="16" r:id="rId11"/>
+    <sheet name="heat12" sheetId="17" r:id="rId12"/>
+    <sheet name="heat13" sheetId="19" r:id="rId13"/>
+    <sheet name="heat14" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="29">
   <si>
     <t>cells</t>
   </si>
@@ -142,6 +147,15 @@
   <si>
     <t>TEMPERATURE DEPENDENT CONDUCTIVITY</t>
   </si>
+  <si>
+    <t>R [m]</t>
+  </si>
+  <si>
+    <t>Tf [C]</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
 </sst>
 </file>
 
@@ -212,6 +226,3698 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat9!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20.506329999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.518989999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.531649999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.55696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.56962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.582280000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.594940000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.607589999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.620249999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.632909999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.645569999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.658230000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.67089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.683540000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.696199999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.708860000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.721519999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.734180000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.746839999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.772150000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.822780000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.873420000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.924050000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.974679999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B90C-4E8B-8F5A-814C5A653C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="424632848"/>
+        <c:axId val="424629896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="424632848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424629896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424629896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424632848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat10!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>22.416609999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.999829999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.33306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.41628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.249499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.832720000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.165939999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.249169999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.082389999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.665610000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.998829999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.082050000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.915280000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.4985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.831719999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.914940000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.748170000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.331389999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.664609999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.747829999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.200800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.533959999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.467110000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.00027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.133420000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2E8-4063-9AEE-98D95BE3BC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431599680"/>
+        <c:axId val="431597712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431599680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431597712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431597712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431599680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat13!$I$4:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>98.363740000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.079650000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.511470000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.659199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.522840000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.102379999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.397840000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.409199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.136470000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.579650000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.738740000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.613740000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.204650000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.511470000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.534199999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.272840000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.727379999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.897840000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.784199999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.386470000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.11374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.132460000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.080010000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.957369999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.765450000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00000">
+                  <c:v>36.505119999999998</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00000">
+                  <c:v>35.177199999999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00000">
+                  <c:v>33.78246</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00000">
+                  <c:v>32.321649999999998</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00000">
+                  <c:v>30.795449999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B245-48BE-B488-058FB2995DE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473406552"/>
+        <c:axId val="473411144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473406552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473411144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473411144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473406552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat14!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>223.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>211.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04AA-44B8-8231-9247FF1A6D4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465545016"/>
+        <c:axId val="465545344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465545016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465545344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDF91F3-6077-43E6-B2FD-49D35C3DC8BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7CC638-D40F-4549-B122-1F97969038FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CDE525-126C-423C-BF74-07D27939D12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5722E0-BE2B-4135-A010-020B5634B880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,6 +4583,3343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DBD4C4-7704-4BD1-9090-5D85E337D482}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$4-$D$3)*LN($G4/$D$7)</f>
+        <v>128.2404601085629</v>
+      </c>
+      <c r="I4" s="4">
+        <v>22.416609999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>82.519861531202366</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H28" si="1">$D$3+($D$4-$D$3)*LN($G5/$D$7)</f>
+        <v>106.26821433520072</v>
+      </c>
+      <c r="I5" s="4">
+        <v>26.999829999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>74.592750834379572</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>96.051701859880907</v>
+      </c>
+      <c r="I6" s="4">
+        <v>31.33306</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>67.378964252285385</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>89.322257127456652</v>
+      </c>
+      <c r="I7" s="4">
+        <v>35.41628</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>60.349994347474414</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>84.295968561838535</v>
+      </c>
+      <c r="I8" s="4">
+        <v>39.249499999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>53.438461329017144</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>80.282554652595508</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42.832720000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>46.647537331928646</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>76.941472959332188</v>
+      </c>
+      <c r="I10" s="4">
+        <v>46.165939999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>39.998627236573384</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(N4:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>74.079456086518718</v>
+      </c>
+      <c r="I11" s="4">
+        <v>49.249169999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>33.518450861084865</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>71.576193227438608</v>
+      </c>
+      <c r="I12" s="4">
+        <v>52.082389999999997</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>27.235037724758037</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>69.351680525234116</v>
+      </c>
+      <c r="I13" s="4">
+        <v>54.665610000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>21.176228771976884</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>67.350011354094462</v>
+      </c>
+      <c r="I14" s="4">
+        <v>56.998829999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>15.369234757322989</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999995</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>65.530575789979935</v>
+      </c>
+      <c r="I15" s="4">
+        <v>59.082050000000002</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8404839454591748</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>63.862943611198908</v>
+      </c>
+      <c r="I16" s="4">
+        <v>60.915280000000003</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6156087466691833</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>62.323722788476346</v>
+      </c>
+      <c r="I17" s="4">
+        <v>62.4985</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.28043448578455366</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>60.894543508833443</v>
+      </c>
+      <c r="I18" s="4">
+        <v>63.831719999999997</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.8233820666386684</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>59.560716018859992</v>
+      </c>
+      <c r="I19" s="4">
+        <v>64.914940000000001</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.9895225226046414</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>58.310308879233318</v>
+      </c>
+      <c r="I20" s="4">
+        <v>65.748170000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-12.755653783572409</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>57.133498878774645</v>
+      </c>
+      <c r="I21" s="4">
+        <v>66.331389999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-16.098945980433228</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>56.022101855678429</v>
+      </c>
+      <c r="I22" s="4">
+        <v>66.664609999999996</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-18.996981176711845</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000007</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>54.969227185969991</v>
+      </c>
+      <c r="I23" s="4">
+        <v>66.747829999999993</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-21.427630361585837</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:G28" si="3">$G23+$D$8</f>
+        <v>0.41000000000000009</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>53.969018774476758</v>
+      </c>
+      <c r="I24" s="4">
+        <v>66.200800000000001</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4300000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>53.016457794691668</v>
+      </c>
+      <c r="I25" s="4">
+        <v>65.533959999999993</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>52.107210313156521</v>
+      </c>
+      <c r="I26" s="4">
+        <v>64.467110000000005</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.47000000000000014</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>51.237508074361742</v>
+      </c>
+      <c r="I27" s="4">
+        <v>63.00027</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000016</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>50.404054146350383</v>
+      </c>
+      <c r="I28" s="4">
+        <v>61.133420000000001</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B10235-15AE-4230-BE68-B2F451658C9A}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D7/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$5/(4*$D$4))*($D$6^2-$G4^2)</f>
+        <v>86.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>86.818179999999998</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-4.0917783779342964E-2</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>20000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$7</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$5/(4*$D$4))*($D$6^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>86.534090000000006</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-4.1053222760495008E-2</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>85.965909999999994</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.1326787337798356E-2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>D6/D8</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>85.113640000000004</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.1743985307626068E-2</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>83.977270000000004</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.2301514510526696E-2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>82.556820000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.303516653757631E-2</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-4.0917783779342964E-2</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>80.852270000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.3937217681686881E-2</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>78.863640000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.5053716551045377E-2</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>76.590909999999994</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.6387679747640978E-2</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>74.034090000000006</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.7988021883104776E-2</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>71.193179999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.9902625012455501E-2</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>68.068179999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.2194842885456907E-2</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>64.659090000000006</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.4949686778774445E-2</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>60.965910000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.8283343046977763E-2</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>56.988639999999997</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.2358299039787089E-2</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>52.727269999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.7389351664660369E-2</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>48.181820000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.3760967694379592E-2</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43.352269999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.197435645192909E-2</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>38.238639999999997</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.2963599182069742E-2</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>32.840910000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.10825130980743083</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79E571-FEF8-427E-81BC-266F03877BB8}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$7/(2*$D$4))*$D$6+($D$6/(4*$D$5))*($D$7^2-$G4^2)</f>
+        <v>87.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>88.068179999999998</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-0.32524591012797871</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(4*$D$5))*($D$7^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>87.784090000000006</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-1.4861636587568823</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>87.215909999999994</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.4959924621869596</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>86.363640000000004</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5109818181818226</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>85.227270000000004</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5314291902868189</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>83.806820000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5577954729322747</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>82.102270000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5906460673169798</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-0.32524591012797871</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>80.113640000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.6307821605550097</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>77.840909999999994</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.6791922070692848</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>75.284090000000006</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.7372096362414884</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>72.443179999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.8065649665635082</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>69.318179999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.8895473849044564</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>65.909090000000006</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.989228178920768</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>62.215910000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.1098044993589022</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>58.238639999999997</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.2571456790123525</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>53.977269999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.4396767219301951</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>49.431820000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.6700141023750117</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44.602269999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.9676933267749344</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>39.488639999999997</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.3649472392638717</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>34.090910000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.9185998701018709</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A22AF3-21CB-47B6-BE73-58487008DE6C}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$7/(2*$D$4))*$D$6+($D$6/(4*$D$5))*($D$7^2-$G4^2)</f>
+        <v>87.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>98.363740000000007</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-12.053711160374753</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(4*$D$5))*($D$7^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>98.079650000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-13.388740619098447</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>97.511470000000003</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-13.477270650466995</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>96.659199999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-13.612282828282826</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>95.522840000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-13.796563770200512</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>94.102379999999997</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.034039969016268</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>92.397840000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.330045452148681</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-12.053711160374753</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>90.409199999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.691552031714567</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>88.136470000000003</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-15.127701790518596</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>85.579650000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-15.650395623380362</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>82.738740000000007</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-16.275222996307004</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>79.613740000000007</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-17.022806054911772</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>76.204650000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-17.920812396966699</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>72.511470000000003</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-19.007051824221943</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>68.534199999999998</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-20.334397805212632</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>64.272840000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-21.978917266477993</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>59.727379999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-24.05391804100902</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>54.897840000000002</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-26.735790654205687</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>49.784199999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-30.314470347648356</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44.386470000000003</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-35.302337648841892</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>42.11374</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>41.132460000000002</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>40.080010000000001</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <v>38.957369999999997</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>37.765450000000001</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3">
+        <v>36.505119999999998</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3">
+        <v>35.177199999999999</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3">
+        <v>33.78246</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3">
+        <v>32.321649999999998</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3">
+        <v>30.795449999999999</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDEB057-5746-44CF-A13F-97E2A5DA4D44}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$7/(2*$D$4))*$D$6+($D$6/(4*$D$5))*($D$7^2-$G4^2)</f>
+        <v>87.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>223.75</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-154.89085583909122</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(4*$D$5))*($D$7^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>223.625</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-158.53025699975365</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>223.375</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-159.94875609554512</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>223</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-162.11202938475665</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>222.5</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-165.06472628818</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>221.875</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-168.86995438505897</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>221.125</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-173.61279550048332</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-29.551851050010967</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>220.25</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-179.40535183349851</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>219.25</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-186.39391409221628</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>218.125</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-194.76917170553793</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>211.25</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-196.87593572212791</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>197.5</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-190.30170163900195</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>182.5</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-182.40465985273107</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>166.25</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-172.85231378948598</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>148.75</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-161.17969821673526</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>130</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-146.71788650761565</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>110</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-128.47027585189562</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>88.75</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-104.88604689293338</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>66.25</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-73.415132924335509</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-29.551851050010967</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFEB274-6099-4192-87E2-B6D4952664E3}">
   <dimension ref="C2:M36"/>
@@ -4506,7 +11549,841 @@
   <dimension ref="C2:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D9/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H23" si="0">(-$D$7/(2*$D$5))*$G4^2+$D$7*$D$8*$G4/(2*$D$5)+$D$3</f>
+        <v>31.077808252796721</v>
+      </c>
+      <c r="I4" s="4">
+        <v>31.129190000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-0.16533259612558399</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L23" si="1">SQRT(1/($D$6^2)+2*$H4/$D$6)-1/$D$6</f>
+        <v>30.588782813991656</v>
+      </c>
+      <c r="M4" s="4">
+        <v>31.01004</v>
+      </c>
+      <c r="N4" s="4">
+        <f>100*(L4-M4)/L4</f>
+        <v>-1.3771623034822287</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22.003450000000001</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="2">$G4+$D$9</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>51.529146565652198</v>
+      </c>
+      <c r="I5" s="4">
+        <v>51.161729999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="3">100*(H5-I5)/H5</f>
+        <v>0.71302668516755185</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>50.211458153435842</v>
+      </c>
+      <c r="M5" s="4">
+        <v>50.636029999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
+        <v>-0.84556764965230058</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1.0452906248792999E-3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>69.708113954857083</v>
+      </c>
+      <c r="I6" s="4">
+        <v>68.968440000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0611016607565862</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>67.33821280765153</v>
+      </c>
+      <c r="M6" s="4">
+        <v>67.766379999999998</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.6358457917074628</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2000000</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>85.614710420411356</v>
+      </c>
+      <c r="I7" s="4">
+        <v>84.549300000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2444244863758247</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>82.092509521268425</v>
+      </c>
+      <c r="M7" s="4">
+        <v>82.524690000000007</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.5264554357661736</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>99.248935962315016</v>
+      </c>
+      <c r="I8" s="4">
+        <v>97.904330000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3547812369752397</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>94.574245783979563</v>
+      </c>
+      <c r="M8" s="4">
+        <v>95.01097</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.46177922160539825</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>D8/D10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>110.61079058056805</v>
+      </c>
+      <c r="I9" s="4">
+        <v>109.0335</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4259825576593816</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>104.86358822963905</v>
+      </c>
+      <c r="M9" s="4">
+        <v>105.30549999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.42141583920741921</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>119.70027427517049</v>
+      </c>
+      <c r="I10" s="4">
+        <v>117.93689999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.473158090779972</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>113.02380427492369</v>
+      </c>
+      <c r="M10" s="4">
+        <v>113.47150000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.39610746421817628</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>126.51738704612232</v>
+      </c>
+      <c r="I11" s="4">
+        <v>124.6144</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5041308475874384</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>119.10334602545174</v>
+      </c>
+      <c r="M11" s="4">
+        <v>119.55759999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.38139480518975499</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <f>MAX(N4:N23)</f>
+        <v>-0.37481891295966879</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>131.06212889342353</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.06610000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5229638876434313</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>123.13735789369559</v>
+      </c>
+      <c r="M12" s="4">
+        <v>123.5989</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.37481891295966879</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>133.33449981707412</v>
+      </c>
+      <c r="I13" s="4">
+        <v>131.2919</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5319364604632919</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>125.14872291630638</v>
+      </c>
+      <c r="M13" s="4">
+        <v>125.61839999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <f>100*(L13-M13)/L13</f>
+        <v>-0.37529514704493561</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>133.33449981707415</v>
+      </c>
+      <c r="I14" s="4">
+        <v>131.2919</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5319364604633128</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>125.14872291630638</v>
+      </c>
+      <c r="M14" s="4">
+        <v>125.62739999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.38248659078505198</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7499999999999989E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>131.06212889342353</v>
+      </c>
+      <c r="I15" s="4">
+        <v>129.06610000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5229638876434313</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>123.13735789369559</v>
+      </c>
+      <c r="M15" s="4">
+        <v>123.6259</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.39674564621255382</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>D5*D6</f>
+        <v>2.3000000000000433E-2</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>126.51738704612234</v>
+      </c>
+      <c r="I16" s="4">
+        <v>124.6144</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5041308475874495</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>119.10334602545174</v>
+      </c>
+      <c r="M16" s="4">
+        <v>119.6027</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.41926107973620425</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>119.70027427517053</v>
+      </c>
+      <c r="I17" s="4">
+        <v>117.93689999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.473158090780007</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>113.02380427492392</v>
+      </c>
+      <c r="M17" s="4">
+        <v>113.535</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.45229031915491347</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>110.61079058056802</v>
+      </c>
+      <c r="I18" s="4">
+        <v>109.0335</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4259825576593563</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>104.86358822963905</v>
+      </c>
+      <c r="M18" s="4">
+        <v>105.3878</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.49989875342906132</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>99.248935962314988</v>
+      </c>
+      <c r="I19" s="4">
+        <v>97.904330000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3547812369752115</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>94.574245783979336</v>
+      </c>
+      <c r="M19" s="4">
+        <v>95.112539999999996</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.56917632444058619</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>85.614710420411313</v>
+      </c>
+      <c r="I20" s="4">
+        <v>84.549300000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2444244863757756</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>82.092509521268425</v>
+      </c>
+      <c r="M20" s="4">
+        <v>82.646159999999995</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.67442265069035334</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>69.708113954856969</v>
+      </c>
+      <c r="I21" s="4">
+        <v>68.968440000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0611016607564248</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>67.33821280765153</v>
+      </c>
+      <c r="M21" s="4">
+        <v>67.908559999999994</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.84698890654795722</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>51.529146565652127</v>
+      </c>
+      <c r="I22" s="4">
+        <v>51.161729999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.71302668516741496</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>50.211458153435728</v>
+      </c>
+      <c r="M22" s="4">
+        <v>50.79992</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.1719672525064999</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000017E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>31.077808252796729</v>
+      </c>
+      <c r="I23" s="4">
+        <v>31.129190000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.16533259612556109</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>30.588782813991656</v>
+      </c>
+      <c r="M23" s="4">
+        <v>31.000319999999999</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.3453859491921343</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605C7ABE-51E9-42B5-AE72-E0E36D26DBFE}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,16 +12402,14 @@
       <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -4546,15 +12421,6 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4563,707 +12429,592 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <f>D9/2</f>
-        <v>2.5000000000000001E-3</v>
+        <f>D8/2</f>
+        <v>0.01</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H23" si="0">(-$D$7/(2*$D$5))*$G4^2+$D$7*$D$8*$G4/(2*$D$5)+$D$3</f>
-        <v>31.077808252796721</v>
+        <f>$D$3+($D$4-$D$3)*LN($G4/$D$7)</f>
+        <v>128.2404601085629</v>
       </c>
       <c r="I4" s="4">
-        <v>31.129190000000001</v>
+        <v>20.506329999999998</v>
       </c>
       <c r="J4" s="4">
         <f>100*(H4-I4)/H4</f>
-        <v>-0.16533259612558399</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4:L23" si="1">SQRT(1/($D$6^2)+2*$H4/$D$6)-1/$D$6</f>
-        <v>30.588782813991656</v>
-      </c>
-      <c r="M4" s="4">
-        <v>30.658840000000001</v>
-      </c>
-      <c r="N4" s="4">
-        <f>100*(L4-M4)/L4</f>
-        <v>-0.2290290085563654</v>
-      </c>
+        <v>84.009469411884353</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="5">
-        <v>22.003450000000001</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G23" si="2">$G4+$D$9</f>
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" ref="G5:G28" si="0">$G4+$D$8</f>
+        <v>0.03</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>51.529146565652198</v>
+        <f t="shared" ref="H5:H28" si="1">$D$3+($D$4-$D$3)*LN($G5/$D$7)</f>
+        <v>106.26821433520072</v>
       </c>
       <c r="I5" s="4">
-        <v>51.161729999999999</v>
+        <v>21.518989999999999</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J23" si="3">100*(H5-I5)/H5</f>
-        <v>0.71302668516755185</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>50.211458153435842</v>
-      </c>
-      <c r="M5" s="4">
-        <v>49.313220000000001</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
-        <v>1.7889107117562904</v>
-      </c>
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>79.750304327008948</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>1.0452906248792999E-3</v>
+        <v>2000000</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>69.708113954857083</v>
+        <f t="shared" si="1"/>
+        <v>96.051701859880907</v>
       </c>
       <c r="I6" s="4">
-        <v>68.968440000000001</v>
+        <v>22.531649999999999</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0611016607565862</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>67.33821280765153</v>
-      </c>
-      <c r="M6" s="4">
-        <v>65.786209999999997</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="4"/>
-        <v>2.3047876427679435</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>76.542164726171208</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2000000</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7500000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>85.614710420411356</v>
+        <f t="shared" si="1"/>
+        <v>89.322257127456652</v>
       </c>
       <c r="I7" s="4">
-        <v>84.549300000000002</v>
+        <v>23.5443</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2444244863758247</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>82.092509521268425</v>
-      </c>
-      <c r="M7" s="4">
-        <v>80.115629999999996</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4081119371265682</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>73.641172136521448</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <f>D7/D9</f>
+        <v>0.02</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>99.248935962315016</v>
+        <f t="shared" si="1"/>
+        <v>84.295968561838535</v>
       </c>
       <c r="I8" s="4">
-        <v>97.904330000000002</v>
+        <v>24.55696</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3547812369752397</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="1"/>
-        <v>94.574245783979563</v>
-      </c>
-      <c r="M8" s="4">
-        <v>92.333569999999995</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.369224058204574</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>70.868167933813695</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f>D8/D10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>2.7500000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>110.61079058056805</v>
+        <f t="shared" si="1"/>
+        <v>80.282554652595508</v>
       </c>
       <c r="I9" s="4">
-        <v>109.0335</v>
+        <v>25.56962</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4259825576593816</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>104.86358822963905</v>
-      </c>
-      <c r="M9" s="4">
-        <v>102.4669</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="4"/>
-        <v>2.2855294865464506</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>68.150465427206797</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>3.2500000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>119.70027427517049</v>
+        <f t="shared" si="1"/>
+        <v>76.941472959332188</v>
       </c>
       <c r="I10" s="4">
-        <v>117.93689999999999</v>
+        <v>26.582280000000001</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="3"/>
-        <v>1.473158090779972</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>113.02380427492369</v>
-      </c>
-      <c r="M10" s="4">
-        <v>110.53789999999999</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1994519569319073</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>65.451298269204969</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(N4:N23)</f>
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>126.51738704612232</v>
+        <f t="shared" si="1"/>
+        <v>74.079456086518718</v>
       </c>
       <c r="I11" s="4">
-        <v>124.6144</v>
+        <v>27.594940000000001</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5041308475874384</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>119.10334602545174</v>
-      </c>
-      <c r="M11" s="4">
-        <v>116.56399999999999</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1320526334407974</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>62.749537513111086</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
-        <f>MAX(N4:N23)</f>
-        <v>2.8850982082047523</v>
-      </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2499999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>131.06212889342353</v>
+        <f t="shared" si="1"/>
+        <v>71.576193227438608</v>
       </c>
       <c r="I12" s="4">
-        <v>129.06610000000001</v>
+        <v>28.607589999999998</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5229638876434313</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>123.13735789369559</v>
-      </c>
-      <c r="M12" s="4">
-        <v>120.55889999999999</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="4"/>
-        <v>2.0939688310687816</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>60.031976122148208</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>4.7499999999999994E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.18999999999999997</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>133.33449981707412</v>
+        <f t="shared" si="1"/>
+        <v>69.351680525234116</v>
       </c>
       <c r="I13" s="4">
-        <v>131.2919</v>
+        <v>29.620249999999999</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5319364604632919</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>125.14872291630638</v>
-      </c>
-      <c r="M13" s="4">
-        <v>122.532</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="4"/>
-        <v>2.0908906262322215</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>57.28978767973409</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999991E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>133.33449981707415</v>
+        <f t="shared" si="1"/>
+        <v>67.350011354094462</v>
       </c>
       <c r="I14" s="4">
-        <v>131.2919</v>
+        <v>30.632909999999999</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5319364604633128</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>125.14872291630638</v>
-      </c>
-      <c r="M14" s="4">
-        <v>122.4888</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1254095561847781</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>54.516845084187644</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>5.7499999999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.22999999999999995</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>131.06212889342353</v>
+        <f t="shared" si="1"/>
+        <v>65.530575789979935</v>
       </c>
       <c r="I15" s="4">
-        <v>129.06610000000001</v>
+        <v>31.645569999999999</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5229638876434313</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>123.13735789369559</v>
-      </c>
-      <c r="M15" s="4">
-        <v>120.43129999999999</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1975929482194498</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>51.708695340292095</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f>D5*D6</f>
-        <v>2.3000000000000433E-2</v>
-      </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999986E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>126.51738704612234</v>
+        <f t="shared" si="1"/>
+        <v>63.862943611198908</v>
       </c>
       <c r="I16" s="4">
-        <v>124.6144</v>
+        <v>32.658230000000003</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5041308475874495</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>119.10334602545174</v>
-      </c>
-      <c r="M16" s="4">
-        <v>116.3574</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="4"/>
-        <v>2.3055154343564368</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>48.862003294390732</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="2"/>
-        <v>6.7499999999999991E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>119.70027427517053</v>
+        <f t="shared" si="1"/>
+        <v>62.323722788476346</v>
       </c>
       <c r="I17" s="4">
-        <v>117.93689999999999</v>
+        <v>33.67089</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="3"/>
-        <v>1.473158090780007</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>113.02380427492392</v>
-      </c>
-      <c r="M17" s="4">
-        <v>110.26130000000001</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4441791644212221</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>45.974199721224373</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="2"/>
-        <v>7.2499999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>110.61079058056802</v>
+        <f t="shared" si="1"/>
+        <v>60.894543508833443</v>
       </c>
       <c r="I18" s="4">
-        <v>109.0335</v>
+        <v>34.683540000000001</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4259825576593563</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>104.86358822963905</v>
-      </c>
-      <c r="M18" s="4">
-        <v>102.1335</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="4"/>
-        <v>2.6034663468319201</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>43.043271200532509</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="2"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.31</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>99.248935962314988</v>
+        <f t="shared" si="1"/>
+        <v>59.560716018859992</v>
       </c>
       <c r="I19" s="4">
-        <v>97.904330000000002</v>
+        <v>35.696199999999997</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3547812369752115</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="1"/>
-        <v>94.574245783979336</v>
-      </c>
-      <c r="M19" s="4">
-        <v>91.960350000000005</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="4"/>
-        <v>2.7638558069496324</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>40.067543867846148</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>17</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.33</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>85.614710420411313</v>
+        <f t="shared" si="1"/>
+        <v>58.310308879233318</v>
       </c>
       <c r="I20" s="4">
-        <v>84.549300000000002</v>
+        <v>36.708860000000001</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2444244863757756</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>82.092509521268425</v>
-      </c>
-      <c r="M20" s="4">
-        <v>79.724059999999994</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="4"/>
-        <v>2.8850982082047523</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>37.045677332926076</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>18</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="2"/>
-        <v>8.7500000000000008E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>69.708113954856969</v>
+        <f t="shared" si="1"/>
+        <v>57.133498878774645</v>
       </c>
       <c r="I21" s="4">
-        <v>68.968440000000001</v>
+        <v>37.721519999999998</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0611016607564248</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>67.33821280765153</v>
-      </c>
-      <c r="M21" s="4">
-        <v>65.402439999999999</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="4"/>
-        <v>2.8747017880931534</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>33.976527360879494</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>19</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="2"/>
-        <v>9.2500000000000013E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.37000000000000005</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>51.529146565652127</v>
+        <f t="shared" si="1"/>
+        <v>56.022101855678429</v>
       </c>
       <c r="I22" s="4">
-        <v>51.161729999999999</v>
+        <v>38.734180000000002</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="3"/>
-        <v>0.71302668516741496</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>50.211458153435728</v>
-      </c>
-      <c r="M22" s="4">
-        <v>48.96855</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4753476579741229</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>30.859109678203037</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="2"/>
-        <v>9.7500000000000017E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.39000000000000007</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>31.077808252796729</v>
+        <f t="shared" si="1"/>
+        <v>54.969227185969991</v>
       </c>
       <c r="I23" s="4">
-        <v>31.129190000000001</v>
+        <v>39.746839999999999</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.16533259612556109</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>30.588782813991656</v>
-      </c>
-      <c r="M23" s="4">
-        <v>30.390319999999999</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="4"/>
-        <v>0.64880912456862516</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>27.692561757272188</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000009</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>53.969018774476758</v>
+      </c>
+      <c r="I24" s="4">
+        <v>41.772150000000003</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4300000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>53.016457794691668</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45.822780000000002</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>52.107210313156521</v>
+      </c>
+      <c r="I26" s="4">
+        <v>49.873420000000003</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000014</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>51.237508074361742</v>
+      </c>
+      <c r="I27" s="4">
+        <v>53.924050000000001</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000016</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>50.404054146350383</v>
+      </c>
+      <c r="I28" s="4">
+        <v>57.974679999999999</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3"/>
     </row>
@@ -5332,703 +13083,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DBD4C4-7704-4BD1-9090-5D85E337D482}">
-  <dimension ref="C2:N37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <f>D8/2</f>
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="4">
-        <f>$D$3+($D$4-$D$3)*LN($G4/$D$7)</f>
-        <v>128.2404601085629</v>
-      </c>
-      <c r="I4" s="4">
-        <v>31.129190000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <f>100*(H4-I4)/H4</f>
-        <v>75.725921465310293</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <f>$G4+$D$8</f>
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H28" si="0">$D$3+($D$4-$D$3)*LN($G5/$D$7)</f>
-        <v>106.26821433520072</v>
-      </c>
-      <c r="I5" s="4">
-        <v>51.161729999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:J23" si="1">100*(H5-I5)/H5</f>
-        <v>51.856036802668875</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>2000000</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <f>$G5+$D$8</f>
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>96.051701859880907</v>
-      </c>
-      <c r="I6" s="4">
-        <v>68.968440000000001</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>28.196545543138473</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <f>$G6+$D$8</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>89.322257127456652</v>
-      </c>
-      <c r="I7" s="4">
-        <v>84.549300000000002</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>5.3435249857669538</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f>D7/D9</f>
-        <v>0.02</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <f>$G7+$D$8</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>84.295968561838535</v>
-      </c>
-      <c r="I8" s="4">
-        <v>97.904330000000002</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>-16.143549531883643</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4">
-        <f>$G8+$D$8</f>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>80.282554652595508</v>
-      </c>
-      <c r="I9" s="4">
-        <v>109.0335</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>-35.81219540386784</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4">
-        <f>$G9+$D$8</f>
-        <v>0.13</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>76.941472959332188</v>
-      </c>
-      <c r="I10" s="4">
-        <v>117.93689999999999</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>-53.281313008312374</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4">
-        <f>MAX(N4:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <f>$G10+$D$8</f>
-        <v>0.15</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>74.079456086518718</v>
-      </c>
-      <c r="I11" s="4">
-        <v>124.6144</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>-68.217217813344391</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4">
-        <f>$G11+$D$8</f>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>71.576193227438608</v>
-      </c>
-      <c r="I12" s="4">
-        <v>129.06610000000001</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>-80.319871985763484</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <f>$G12+$D$8</f>
-        <v>0.18999999999999997</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>69.351680525234116</v>
-      </c>
-      <c r="I13" s="4">
-        <v>131.2919</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="1"/>
-        <v>-89.313220682847742</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4">
-        <f>$G13+$D$8</f>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>67.350011354094462</v>
-      </c>
-      <c r="I14" s="4">
-        <v>131.2919</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="1"/>
-        <v>-94.939685028008938</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
-        <f>$G14+$D$8</f>
-        <v>0.22999999999999995</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>65.530575789979935</v>
-      </c>
-      <c r="I15" s="4">
-        <v>129.06610000000001</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>-96.955540896887825</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4">
-        <f>$G15+$D$8</f>
-        <v>0.24999999999999994</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>63.862943611198908</v>
-      </c>
-      <c r="I16" s="4">
-        <v>124.6144</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="1"/>
-        <v>-95.127867513685686</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4">
-        <f>$G16+$D$8</f>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>62.323722788476346</v>
-      </c>
-      <c r="I17" s="4">
-        <v>117.93689999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="1"/>
-        <v>-89.232758768714831</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4">
-        <f>$G17+$D$8</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>60.894543508833443</v>
-      </c>
-      <c r="I18" s="4">
-        <v>109.0335</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="1"/>
-        <v>-79.052988522992152</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4">
-        <f>$G18+$D$8</f>
-        <v>0.31</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>59.560716018859992</v>
-      </c>
-      <c r="I19" s="4">
-        <v>97.904330000000002</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="1"/>
-        <v>-64.37735565334448</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20" s="4">
-        <f>$G19+$D$8</f>
-        <v>0.33</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>58.310308879233318</v>
-      </c>
-      <c r="I20" s="4">
-        <v>84.549300000000002</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="1"/>
-        <v>-44.998888918785099</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4">
-        <f>$G20+$D$8</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>57.133498878774645</v>
-      </c>
-      <c r="I21" s="4">
-        <v>68.968440000000001</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="1"/>
-        <v>-20.714539374416102</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22" s="4">
-        <f>$G21+$D$8</f>
-        <v>0.37000000000000005</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>56.022101855678429</v>
-      </c>
-      <c r="I22" s="4">
-        <v>51.161729999999999</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6758113221090802</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4">
-        <f>$G22+$D$8</f>
-        <v>0.39000000000000007</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>54.969227185969991</v>
-      </c>
-      <c r="I23" s="4">
-        <v>31.129190000000001</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="1"/>
-        <v>43.369787800209018</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F24">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" ref="G24:G28" si="2">$G23+$D$8</f>
-        <v>0.41000000000000009</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>53.969018774476758</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4300000000000001</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>53.016457794691668</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F26">
-        <v>23</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="2"/>
-        <v>0.45000000000000012</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>52.107210313156521</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.47000000000000014</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>51.237508074361742</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49000000000000016</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>50.404054146350383</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2963A-5DF6-44EB-AEC8-5B6FFC92DB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB33D18-3326-4AB9-8A62-D876B6613B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="13" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="heat1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="heat12" sheetId="17" r:id="rId12"/>
     <sheet name="heat13" sheetId="19" r:id="rId13"/>
     <sheet name="heat14" sheetId="20" r:id="rId14"/>
+    <sheet name="heat15" sheetId="21" r:id="rId15"/>
+    <sheet name="heat16" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="29">
   <si>
     <t>cells</t>
   </si>
@@ -5297,7 +5299,7 @@
   <dimension ref="C2:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C2" sqref="C2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7270,7 +7272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDEB057-5746-44CF-A13F-97E2A5DA4D44}">
   <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -7917,6 +7919,1477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637C3FC-AA45-4027-ADB2-452FFD54938F}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22.003450000000001</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G4^2)</f>
+        <v>76.773767295583212</v>
+      </c>
+      <c r="I4" s="4">
+        <v>76.809269999999998</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-4.6243275102155833E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SQRT(1/($D$5^2)+2*$H4/$D$5)-1/$D$5</f>
+        <v>73.918093638825781</v>
+      </c>
+      <c r="M4" s="4">
+        <v>74.154979999999995</v>
+      </c>
+      <c r="N4" s="4">
+        <f>100*(L4-M4)/L4</f>
+        <v>-0.32047141574250326</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1.0452906248792999E-3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$G4+$D$8</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G5^2)</f>
+        <v>76.489720930126879</v>
+      </c>
+      <c r="I5" s="4">
+        <v>76.525229999999993</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="0">100*(H5-I5)/H5</f>
+        <v>-4.6423322560624931E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L23" si="1">SQRT(1/($D$5^2)+2*$H5/$D$5)-1/$D$5</f>
+        <v>73.65438649508917</v>
+      </c>
+      <c r="M5" s="4">
+        <v>73.891329999999996</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N23" si="2">100*(L5-M5)/L5</f>
+        <v>-0.32169639336636674</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>500000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>$G5+$D$8</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G6^2)</f>
+        <v>75.921628199214226</v>
+      </c>
+      <c r="I6" s="4">
+        <v>75.957130000000006</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.6761116203443379E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>73.126769620070149</v>
+      </c>
+      <c r="M6" s="4">
+        <v>73.363839999999996</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.32419096476098297</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>$G6+$D$8</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G7^2)</f>
+        <v>75.069489102845239</v>
+      </c>
+      <c r="I7" s="4">
+        <v>75.104990000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.729071368279282E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>72.334837059511187</v>
+      </c>
+      <c r="M7" s="4">
+        <v>72.572090000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.32799263831011771</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f>$G7+$D$8</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G8^2)</f>
+        <v>73.933303641019933</v>
+      </c>
+      <c r="I8" s="4">
+        <v>73.968810000000005</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.802485109075038E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>71.277977927105326</v>
+      </c>
+      <c r="M8" s="4">
+        <v>71.515469999999993</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.33319137242858721</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f>$G8+$D$8</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G9^2)</f>
+        <v>72.513071813738307</v>
+      </c>
+      <c r="I9" s="4">
+        <v>72.548580000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.8967979667035415E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>69.955374038864306</v>
+      </c>
+      <c r="M9" s="4">
+        <v>70.193169999999995</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.33992522290507515</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f>$G9+$D$8</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G10^2)</f>
+        <v>70.808793621000348</v>
+      </c>
+      <c r="I10" s="4">
+        <v>70.844300000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.0144024751646019E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>68.36599672571981</v>
+      </c>
+      <c r="M10" s="4">
+        <v>68.604159999999993</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.3483651020779806</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" cm="1">
+        <f t="array" ref="D11">MAX(ABS(N4:N23))</f>
+        <v>1.042526956445005</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f>$G10+$D$8</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G11^2)</f>
+        <v>68.820469062806069</v>
+      </c>
+      <c r="I11" s="4">
+        <v>68.855969999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.1584852119406374E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>66.508602795183265</v>
+      </c>
+      <c r="M11" s="4">
+        <v>66.747200000000007</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.35874637985030955</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f>$G11+$D$8</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G12^2)</f>
+        <v>66.548098139155456</v>
+      </c>
+      <c r="I12" s="4">
+        <v>66.583600000000004</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.3347671589819824E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>64.381729604708426</v>
+      </c>
+      <c r="M12" s="4">
+        <v>64.620819999999995</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.37136373433820252</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f>$G12+$D$8</f>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G13^2)</f>
+        <v>63.991680850048525</v>
+      </c>
+      <c r="I13" s="4">
+        <v>64.027190000000004</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.5490259795938753E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>61.98368920057942</v>
+      </c>
+      <c r="M13" s="4">
+        <v>62.22334</v>
+      </c>
+      <c r="N13" s="4">
+        <f>100*(L13-M13)/L13</f>
+        <v>-0.38663526245601448</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f>$G13+$D$8</f>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G14^2)</f>
+        <v>61.151217195485266</v>
+      </c>
+      <c r="I14" s="4">
+        <v>61.186720000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.8057396308631631E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>59.312561466551074</v>
+      </c>
+      <c r="M14" s="4">
+        <v>59.552840000000003</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.40510564289898854</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f>$G14+$D$8</f>
+        <v>5.7499999999999989E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G15^2)</f>
+        <v>58.026707175465681</v>
+      </c>
+      <c r="I15" s="4">
+        <v>58.06221</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.1183593318440387E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>56.366186215887751</v>
+      </c>
+      <c r="M15" s="4">
+        <v>56.607149999999997</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.42749705149348277</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>$G15+$D$8</f>
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G16^2)</f>
+        <v>54.61815078998977</v>
+      </c>
+      <c r="I16" s="4">
+        <v>54.653660000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.5013570574309079E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>53.142154148691361</v>
+      </c>
+      <c r="M16" s="4">
+        <v>53.383879999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.45486649004157698</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f>$G16+$D$8</f>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G17^2)</f>
+        <v>50.925548039057531</v>
+      </c>
+      <c r="I17" s="4">
+        <v>50.96105</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.9713458783478108E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>49.637796583225281</v>
+      </c>
+      <c r="M17" s="4">
+        <v>49.880360000000003</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48866676901749184</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f>$G17+$D$8</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G18^2)</f>
+        <v>46.94889892266896</v>
+      </c>
+      <c r="I18" s="4">
+        <v>46.984400000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.561642156830152E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>45.850173855046137</v>
+      </c>
+      <c r="M18" s="4">
+        <v>46.093640000000001</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.53100375523890975</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f>$G18+$D$8</f>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G19^2)</f>
+        <v>42.688203440824061</v>
+      </c>
+      <c r="I19" s="4">
+        <v>42.723709999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.3176513214373318E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>41.776062260817071</v>
+      </c>
+      <c r="M19" s="4">
+        <v>42.020499999999998</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.58511435964655945</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f>$G19+$D$8</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G20^2)</f>
+        <v>38.143461593522844</v>
+      </c>
+      <c r="I20" s="4">
+        <v>38.17897</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.3091725275363385E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>37.411939404280702</v>
+      </c>
+      <c r="M20" s="4">
+        <v>37.657429999999998</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.65618249047844635</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f>$G20+$D$8</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G21^2)</f>
+        <v>33.314673380765292</v>
+      </c>
+      <c r="I21" s="4">
+        <v>33.350180000000002</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.10657952076819641</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>32.753967779553022</v>
+      </c>
+      <c r="M21" s="4">
+        <v>33.000590000000003</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.75295372489477874</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f>$G21+$D$8</f>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G22^2)</f>
+        <v>28.201838802551411</v>
+      </c>
+      <c r="I22" s="4">
+        <v>28.23734</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12588256282557456</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>27.797976401067444</v>
+      </c>
+      <c r="M22" s="4">
+        <v>28.045809999999999</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.89155266324723637</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f>$G22+$D$8</f>
+        <v>9.7500000000000017E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G23^2)</f>
+        <v>22.804957858881217</v>
+      </c>
+      <c r="I23" s="4">
+        <v>22.84046</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.15567729323804663</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>22.539440259463277</v>
+      </c>
+      <c r="M23" s="4">
+        <v>22.774419999999999</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.042526956445005</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50054ECD-1B3C-46D9-9663-7D0F170ED22B}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D7/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$5/(6*$D$4))*($D$6^2-$G4^2)</f>
+        <v>171.42045454545459</v>
+      </c>
+      <c r="I4" s="4">
+        <v>170.83850000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>0.3394895591647526</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2000000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$7</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$5/(6*$D$4))*($D$6^2-$G5^2)</f>
+        <v>170.66287878787881</v>
+      </c>
+      <c r="I5" s="4">
+        <v>170.27029999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>0.23003173898570209</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>169.14772727272731</v>
+      </c>
+      <c r="I6" s="4">
+        <v>168.84989999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17607524353378548</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>D6/D8</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>166.87500000000006</v>
+      </c>
+      <c r="I7" s="4">
+        <v>166.6403</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14064419475659054</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>163.844696969697</v>
+      </c>
+      <c r="I8" s="4">
+        <v>163.65729999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11437475436367893</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>160.05681818181822</v>
+      </c>
+      <c r="I9" s="4">
+        <v>159.90729999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3415690450860039E-2</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>0.3394895591647526</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>155.51136363636368</v>
+      </c>
+      <c r="I10" s="4">
+        <v>155.39340000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5855316039480175E-2</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>150.20833333333337</v>
+      </c>
+      <c r="I11" s="4">
+        <v>150.1174</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>6.0538141470203186E-2</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>144.14772727272731</v>
+      </c>
+      <c r="I12" s="4">
+        <v>144.0805</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6637761135223665E-2</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>137.3295454545455</v>
+      </c>
+      <c r="I13" s="4">
+        <v>137.2834</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3601985933004626E-2</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>129.75378787878793</v>
+      </c>
+      <c r="I14" s="4">
+        <v>129.72659999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>2.095343745443462E-2</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7499999999999989E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>121.4204545454546</v>
+      </c>
+      <c r="I15" s="4">
+        <v>121.4104</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2807674310294583E-3</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>112.32954545454551</v>
+      </c>
+      <c r="I16" s="4">
+        <v>112.3353</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.12291350526492E-3</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>102.48106060606065</v>
+      </c>
+      <c r="I17" s="4">
+        <v>102.5014</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.984697837733861E-2</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>91.875000000000043</v>
+      </c>
+      <c r="I18" s="4">
+        <v>91.908869999999993</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.6865306122395143E-2</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>80.511363636363654</v>
+      </c>
+      <c r="I19" s="4">
+        <v>80.557860000000005</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.7751305575142679E-2</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>68.39015151515153</v>
+      </c>
+      <c r="I20" s="4">
+        <v>68.448480000000004</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.5287842702836153E-2</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>55.51136363636364</v>
+      </c>
+      <c r="I21" s="4">
+        <v>55.580840000000002</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.12515701125895265</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>41.874999999999986</v>
+      </c>
+      <c r="I22" s="4">
+        <v>41.954990000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.19102089552242738</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7500000000000017E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>27.481060606060598</v>
+      </c>
+      <c r="I23" s="4">
+        <v>27.571020000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.3273505168849376</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11549,7 +13022,7 @@
   <dimension ref="C2:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="C5" sqref="C5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB33D18-3326-4AB9-8A62-D876B6613B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873A29E-E85C-4598-BA47-A678614B1FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="16" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="heat1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="heat14" sheetId="20" r:id="rId14"/>
     <sheet name="heat15" sheetId="21" r:id="rId15"/>
     <sheet name="heat16" sheetId="22" r:id="rId16"/>
+    <sheet name="heat17" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
   <si>
     <t>cells</t>
   </si>
@@ -8750,7 +8751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50054ECD-1B3C-46D9-9663-7D0F170ED22B}">
   <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -9285,6 +9286,659 @@
       <c r="J23" s="4">
         <f t="shared" si="2"/>
         <v>-0.3273505168849376</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2EDF9-F4DD-4FA3-9A1A-CFFE76DCA797}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$5/(3*$D$4))*$D$7+($D$6/(6*$D$5))*($D$7^2-$G4^2)</f>
+        <v>171.42049121212125</v>
+      </c>
+      <c r="I4" s="4">
+        <v>171.17160000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>0.14519338403554716</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$G4+$D$8</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="0">$D$3+($D$5/(3*$D$4))*$D$7+($D$6/(6*$D$5))*($D$7^2-$G5^2)</f>
+        <v>170.66291545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>170.60339999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="1">100*(H5-I5)/H5</f>
+        <v>3.4873103150126095E-2</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>$G5+$D$8</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>169.14776393939397</v>
+      </c>
+      <c r="I6" s="4">
+        <v>169.18299999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.0831526107935799E-2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>$G6+$D$8</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>166.87503666666672</v>
+      </c>
+      <c r="I7" s="4">
+        <v>166.9734</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.894430664891049E-2</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f>$G7+$D$8</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>163.84473363636366</v>
+      </c>
+      <c r="I8" s="4">
+        <v>163.99039999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.8905124017979537E-2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f>$G8+$D$8</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>160.05685484848487</v>
+      </c>
+      <c r="I9" s="4">
+        <v>160.24039999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.11467497077139814</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f>$G9+$D$8</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>155.51140030303034</v>
+      </c>
+      <c r="I10" s="4">
+        <v>155.72649999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.13831763880365081</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>0.14519338403554716</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f>$G10+$D$8</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>150.20837000000003</v>
+      </c>
+      <c r="I11" s="4">
+        <v>150.45060000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.16126265134225071</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f>$G11+$D$8</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>144.147763939394</v>
+      </c>
+      <c r="I12" s="4">
+        <v>144.4136</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.18441913585130243</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f>$G12+$D$8</f>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>137.32958212121216</v>
+      </c>
+      <c r="I13" s="4">
+        <v>137.6165</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.20892649227942928</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f>$G13+$D$8</f>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>129.75382454545459</v>
+      </c>
+      <c r="I14" s="4">
+        <v>130.05969999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.23573521290561134</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f>$G14+$D$8</f>
+        <v>5.7499999999999989E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>121.42049121212128</v>
+      </c>
+      <c r="I15" s="4">
+        <v>121.7436</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.26610729758476542</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>$G15+$D$8</f>
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>112.32958212121218</v>
+      </c>
+      <c r="I16" s="4">
+        <v>112.66840000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.3016283621728526</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f>$G16+$D$8</f>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>102.48109727272731</v>
+      </c>
+      <c r="I17" s="4">
+        <v>102.83450000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.34484674410950467</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f>$G17+$D$8</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>91.875036666666716</v>
+      </c>
+      <c r="I18" s="4">
+        <v>92.241990000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.39940482926241899</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f>$G18+$D$8</f>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>80.511400303030328</v>
+      </c>
+      <c r="I19" s="4">
+        <v>80.890979999999999</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.47146080622247499</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f>$G19+$D$8</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>68.390188181818203</v>
+      </c>
+      <c r="I20" s="4">
+        <v>68.781610000000001</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.57233622042563448</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f>$G20+$D$8</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>55.511400303030307</v>
+      </c>
+      <c r="I21" s="4">
+        <v>55.913960000000003</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.72518382669536263</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f>$G21+$D$8</f>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>41.875036666666645</v>
+      </c>
+      <c r="I22" s="4">
+        <v>42.288119999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.98646679791966985</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f>$G22+$D$8</f>
+        <v>9.7500000000000017E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>27.481097272727265</v>
+      </c>
+      <c r="I23" s="4">
+        <v>27.904150000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.5394317158237405</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>

--- a/inputs/HeatSolverAnalyticalSolutions.xlsx
+++ b/inputs/HeatSolverAnalyticalSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\ALMOST\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873A29E-E85C-4598-BA47-A678614B1FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E744F6-90AA-41AC-B054-8AB06BC33BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="16" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="19" xr2:uid="{B89BA52E-DB4C-4F8F-BAE4-806C00FF5CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="heat1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="heat15" sheetId="21" r:id="rId15"/>
     <sheet name="heat16" sheetId="22" r:id="rId16"/>
     <sheet name="heat17" sheetId="23" r:id="rId17"/>
+    <sheet name="heat18" sheetId="24" r:id="rId18"/>
+    <sheet name="heat19" sheetId="25" r:id="rId19"/>
+    <sheet name="heat20" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="29">
   <si>
     <t>cells</t>
   </si>
@@ -1535,6 +1538,628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat18!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>644.76570000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>644.53840000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>643.97019999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>643.08640000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>641.89319999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640.39319999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>638.58759999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>636.47720000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>634.0625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>631.34360000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>616.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>566.86130000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>521.69079999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>474.37270000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>422.41559999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>364.64659999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>229.44030000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.41759999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.227900000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-797E-4592-AA18-618ED93C9B33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465545016"/>
+        <c:axId val="465545344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465545016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465545344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heat19!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>964.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>962.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>956.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>946.33579999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>933.21079999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>916.71079999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896.84969999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>873.6354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>847.0729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>817.16549999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>675.85299999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>621.54740000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>571.85990000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>519.80989999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>462.65710000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>399.1112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>328.4862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250.3844</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164.55940000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.85069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ACE-4ABF-B52D-4E93CB824A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465545016"/>
+        <c:axId val="465545344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465545016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465545344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465545016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1656,6 +2281,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3759,6 +4464,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3907,6 +5644,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD90F61-5704-49A5-97A0-6DA30810C149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26E377E-AD55-4197-931C-75FCFBAC6F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7995,7 +9818,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G4^2)</f>
+        <f t="shared" ref="H4:H23" si="0">$D$3+($D$6/(4*$D$4))*($D$7^2-$G4^2)</f>
         <v>76.773767295583212</v>
       </c>
       <c r="I4" s="4">
@@ -8028,29 +9851,29 @@
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <f>$G4+$D$8</f>
+        <f t="shared" ref="G5:G23" si="1">$G4+$D$8</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G5^2)</f>
+        <f t="shared" si="0"/>
         <v>76.489720930126879</v>
       </c>
       <c r="I5" s="4">
         <v>76.525229999999993</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J23" si="0">100*(H5-I5)/H5</f>
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
         <v>-4.6423322560624931E-2</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L23" si="1">SQRT(1/($D$5^2)+2*$H5/$D$5)-1/$D$5</f>
+        <f t="shared" ref="L5:L23" si="3">SQRT(1/($D$5^2)+2*$H5/$D$5)-1/$D$5</f>
         <v>73.65438649508917</v>
       </c>
       <c r="M5" s="4">
         <v>73.891329999999996</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:N23" si="2">100*(L5-M5)/L5</f>
+        <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
         <v>-0.32169639336636674</v>
       </c>
     </row>
@@ -8065,29 +9888,29 @@
         <v>3</v>
       </c>
       <c r="G6" s="4">
-        <f>$G5+$D$8</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H6" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G6^2)</f>
+        <f t="shared" si="0"/>
         <v>75.921628199214226</v>
       </c>
       <c r="I6" s="4">
         <v>75.957130000000006</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.6761116203443379E-2</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.126769620070149</v>
       </c>
       <c r="M6" s="4">
         <v>73.363839999999996</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.32419096476098297</v>
       </c>
     </row>
@@ -8102,29 +9925,29 @@
         <v>4</v>
       </c>
       <c r="G7" s="4">
-        <f>$G6+$D$8</f>
+        <f t="shared" si="1"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="H7" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G7^2)</f>
+        <f t="shared" si="0"/>
         <v>75.069489102845239</v>
       </c>
       <c r="I7" s="4">
         <v>75.104990000000001</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.729071368279282E-2</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72.334837059511187</v>
       </c>
       <c r="M7" s="4">
         <v>72.572090000000003</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.32799263831011771</v>
       </c>
     </row>
@@ -8140,29 +9963,29 @@
         <v>5</v>
       </c>
       <c r="G8" s="4">
-        <f>$G7+$D$8</f>
+        <f t="shared" si="1"/>
         <v>2.2500000000000003E-2</v>
       </c>
       <c r="H8" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G8^2)</f>
+        <f t="shared" si="0"/>
         <v>73.933303641019933</v>
       </c>
       <c r="I8" s="4">
         <v>73.968810000000005</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.802485109075038E-2</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71.277977927105326</v>
       </c>
       <c r="M8" s="4">
         <v>71.515469999999993</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.33319137242858721</v>
       </c>
     </row>
@@ -8177,29 +10000,29 @@
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f>$G8+$D$8</f>
+        <f t="shared" si="1"/>
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H9" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G9^2)</f>
+        <f t="shared" si="0"/>
         <v>72.513071813738307</v>
       </c>
       <c r="I9" s="4">
         <v>72.548580000000001</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.8967979667035415E-2</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.955374038864306</v>
       </c>
       <c r="M9" s="4">
         <v>70.193169999999995</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.33992522290507515</v>
       </c>
     </row>
@@ -8208,29 +10031,29 @@
         <v>7</v>
       </c>
       <c r="G10" s="4">
-        <f>$G9+$D$8</f>
+        <f t="shared" si="1"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="H10" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G10^2)</f>
+        <f t="shared" si="0"/>
         <v>70.808793621000348</v>
       </c>
       <c r="I10" s="4">
         <v>70.844300000000004</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.0144024751646019E-2</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68.36599672571981</v>
       </c>
       <c r="M10" s="4">
         <v>68.604159999999993</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.3483651020779806</v>
       </c>
     </row>
@@ -8246,29 +10069,29 @@
         <v>8</v>
       </c>
       <c r="G11" s="4">
-        <f>$G10+$D$8</f>
+        <f t="shared" si="1"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="H11" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G11^2)</f>
+        <f t="shared" si="0"/>
         <v>68.820469062806069</v>
       </c>
       <c r="I11" s="4">
         <v>68.855969999999999</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.1584852119406374E-2</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66.508602795183265</v>
       </c>
       <c r="M11" s="4">
         <v>66.747200000000007</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.35874637985030955</v>
       </c>
     </row>
@@ -8277,29 +10100,29 @@
         <v>9</v>
       </c>
       <c r="G12" s="4">
-        <f>$G11+$D$8</f>
+        <f t="shared" si="1"/>
         <v>4.2499999999999996E-2</v>
       </c>
       <c r="H12" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G12^2)</f>
+        <f t="shared" si="0"/>
         <v>66.548098139155456</v>
       </c>
       <c r="I12" s="4">
         <v>66.583600000000004</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.3347671589819824E-2</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64.381729604708426</v>
       </c>
       <c r="M12" s="4">
         <v>64.620819999999995</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.37136373433820252</v>
       </c>
     </row>
@@ -8308,22 +10131,22 @@
         <v>10</v>
       </c>
       <c r="G13" s="4">
-        <f>$G12+$D$8</f>
+        <f t="shared" si="1"/>
         <v>4.7499999999999994E-2</v>
       </c>
       <c r="H13" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G13^2)</f>
+        <f t="shared" si="0"/>
         <v>63.991680850048525</v>
       </c>
       <c r="I13" s="4">
         <v>64.027190000000004</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5490259795938753E-2</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61.98368920057942</v>
       </c>
       <c r="M13" s="4">
@@ -8339,29 +10162,29 @@
         <v>11</v>
       </c>
       <c r="G14" s="4">
-        <f>$G13+$D$8</f>
+        <f t="shared" si="1"/>
         <v>5.2499999999999991E-2</v>
       </c>
       <c r="H14" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G14^2)</f>
+        <f t="shared" si="0"/>
         <v>61.151217195485266</v>
       </c>
       <c r="I14" s="4">
         <v>61.186720000000001</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.8057396308631631E-2</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.312561466551074</v>
       </c>
       <c r="M14" s="4">
         <v>59.552840000000003</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.40510564289898854</v>
       </c>
     </row>
@@ -8370,29 +10193,29 @@
         <v>12</v>
       </c>
       <c r="G15" s="4">
-        <f>$G14+$D$8</f>
+        <f t="shared" si="1"/>
         <v>5.7499999999999989E-2</v>
       </c>
       <c r="H15" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G15^2)</f>
+        <f t="shared" si="0"/>
         <v>58.026707175465681</v>
       </c>
       <c r="I15" s="4">
         <v>58.06221</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.1183593318440387E-2</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56.366186215887751</v>
       </c>
       <c r="M15" s="4">
         <v>56.607149999999997</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.42749705149348277</v>
       </c>
     </row>
@@ -8401,29 +10224,29 @@
         <v>13</v>
       </c>
       <c r="G16" s="4">
-        <f>$G15+$D$8</f>
+        <f t="shared" si="1"/>
         <v>6.2499999999999986E-2</v>
       </c>
       <c r="H16" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G16^2)</f>
+        <f t="shared" si="0"/>
         <v>54.61815078998977</v>
       </c>
       <c r="I16" s="4">
         <v>54.653660000000002</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.5013570574309079E-2</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.142154148691361</v>
       </c>
       <c r="M16" s="4">
         <v>53.383879999999998</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.45486649004157698</v>
       </c>
     </row>
@@ -8432,29 +10255,29 @@
         <v>14</v>
       </c>
       <c r="G17" s="4">
-        <f>$G16+$D$8</f>
+        <f t="shared" si="1"/>
         <v>6.7499999999999991E-2</v>
       </c>
       <c r="H17" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G17^2)</f>
+        <f t="shared" si="0"/>
         <v>50.925548039057531</v>
       </c>
       <c r="I17" s="4">
         <v>50.96105</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.9713458783478108E-2</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.637796583225281</v>
       </c>
       <c r="M17" s="4">
         <v>49.880360000000003</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.48866676901749184</v>
       </c>
     </row>
@@ -8463,29 +10286,29 @@
         <v>15</v>
       </c>
       <c r="G18" s="4">
-        <f>$G17+$D$8</f>
+        <f t="shared" si="1"/>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="H18" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G18^2)</f>
+        <f t="shared" si="0"/>
         <v>46.94889892266896</v>
       </c>
       <c r="I18" s="4">
         <v>46.984400000000001</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.561642156830152E-2</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.850173855046137</v>
       </c>
       <c r="M18" s="4">
         <v>46.093640000000001</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.53100375523890975</v>
       </c>
     </row>
@@ -8494,29 +10317,29 @@
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <f>$G18+$D$8</f>
+        <f t="shared" si="1"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="H19" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G19^2)</f>
+        <f t="shared" si="0"/>
         <v>42.688203440824061</v>
       </c>
       <c r="I19" s="4">
         <v>42.723709999999997</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.3176513214373318E-2</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.776062260817071</v>
       </c>
       <c r="M19" s="4">
         <v>42.020499999999998</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.58511435964655945</v>
       </c>
     </row>
@@ -8525,29 +10348,29 @@
         <v>17</v>
       </c>
       <c r="G20" s="4">
-        <f>$G19+$D$8</f>
+        <f t="shared" si="1"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="H20" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G20^2)</f>
+        <f t="shared" si="0"/>
         <v>38.143461593522844</v>
       </c>
       <c r="I20" s="4">
         <v>38.17897</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.3091725275363385E-2</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.411939404280702</v>
       </c>
       <c r="M20" s="4">
         <v>37.657429999999998</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.65618249047844635</v>
       </c>
     </row>
@@ -8556,29 +10379,29 @@
         <v>18</v>
       </c>
       <c r="G21" s="4">
-        <f>$G20+$D$8</f>
+        <f t="shared" si="1"/>
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="H21" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G21^2)</f>
+        <f t="shared" si="0"/>
         <v>33.314673380765292</v>
       </c>
       <c r="I21" s="4">
         <v>33.350180000000002</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.10657952076819641</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.753967779553022</v>
       </c>
       <c r="M21" s="4">
         <v>33.000590000000003</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.75295372489477874</v>
       </c>
     </row>
@@ -8587,29 +10410,29 @@
         <v>19</v>
       </c>
       <c r="G22" s="4">
-        <f>$G21+$D$8</f>
+        <f t="shared" si="1"/>
         <v>9.2500000000000013E-2</v>
       </c>
       <c r="H22" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G22^2)</f>
+        <f t="shared" si="0"/>
         <v>28.201838802551411</v>
       </c>
       <c r="I22" s="4">
         <v>28.23734</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.12588256282557456</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.797976401067444</v>
       </c>
       <c r="M22" s="4">
         <v>28.045809999999999</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.89155266324723637</v>
       </c>
     </row>
@@ -8618,29 +10441,29 @@
         <v>20</v>
       </c>
       <c r="G23" s="4">
-        <f>$G22+$D$8</f>
+        <f t="shared" si="1"/>
         <v>9.7500000000000017E-2</v>
       </c>
       <c r="H23" s="4">
-        <f>$D$3+($D$6/(4*$D$4))*($D$7^2-$G23^2)</f>
+        <f t="shared" si="0"/>
         <v>22.804957858881217</v>
       </c>
       <c r="I23" s="4">
         <v>22.84046</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.15567729323804663</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.539440259463277</v>
       </c>
       <c r="M23" s="4">
         <v>22.774419999999999</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.042526956445005</v>
       </c>
     </row>
@@ -9398,7 +11221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2EDF9-F4DD-4FA3-9A1A-CFFE76DCA797}">
   <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -9480,18 +11303,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <f>$G4+$D$8</f>
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H23" si="0">$D$3+($D$5/(3*$D$4))*$D$7+($D$6/(6*$D$5))*($D$7^2-$G5^2)</f>
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$5/(3*$D$4))*$D$7+($D$6/(6*$D$5))*($D$7^2-$G5^2)</f>
         <v>170.66291545454547</v>
       </c>
       <c r="I5" s="4">
         <v>170.60339999999999</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J23" si="1">100*(H5-I5)/H5</f>
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
         <v>3.4873103150126095E-2</v>
       </c>
       <c r="L5" s="4"/>
@@ -9509,18 +11332,18 @@
         <v>3</v>
       </c>
       <c r="G6" s="4">
-        <f>$G5+$D$8</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>169.14776393939397</v>
       </c>
       <c r="I6" s="4">
         <v>169.18299999999999</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0831526107935799E-2</v>
       </c>
       <c r="L6" s="4"/>
@@ -9538,18 +11361,18 @@
         <v>4</v>
       </c>
       <c r="G7" s="4">
-        <f>$G6+$D$8</f>
+        <f t="shared" si="0"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>166.87503666666672</v>
       </c>
       <c r="I7" s="4">
         <v>166.9734</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.894430664891049E-2</v>
       </c>
       <c r="L7" s="4"/>
@@ -9568,18 +11391,18 @@
         <v>5</v>
       </c>
       <c r="G8" s="4">
-        <f>$G7+$D$8</f>
+        <f t="shared" si="0"/>
         <v>2.2500000000000003E-2</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163.84473363636366</v>
       </c>
       <c r="I8" s="4">
         <v>163.99039999999999</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.8905124017979537E-2</v>
       </c>
       <c r="L8" s="4"/>
@@ -9597,18 +11420,18 @@
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f>$G8+$D$8</f>
+        <f t="shared" si="0"/>
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160.05685484848487</v>
       </c>
       <c r="I9" s="4">
         <v>160.24039999999999</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.11467497077139814</v>
       </c>
       <c r="L9" s="4"/>
@@ -9620,18 +11443,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="4">
-        <f>$G9+$D$8</f>
+        <f t="shared" si="0"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155.51140030303034</v>
       </c>
       <c r="I10" s="4">
         <v>155.72649999999999</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13831763880365081</v>
       </c>
       <c r="L10" s="4"/>
@@ -9650,18 +11473,18 @@
         <v>8</v>
       </c>
       <c r="G11" s="4">
-        <f>$G10+$D$8</f>
+        <f t="shared" si="0"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.20837000000003</v>
       </c>
       <c r="I11" s="4">
         <v>150.45060000000001</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16126265134225071</v>
       </c>
       <c r="L11" s="4"/>
@@ -9673,18 +11496,18 @@
         <v>9</v>
       </c>
       <c r="G12" s="4">
-        <f>$G11+$D$8</f>
+        <f t="shared" si="0"/>
         <v>4.2499999999999996E-2</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144.147763939394</v>
       </c>
       <c r="I12" s="4">
         <v>144.4136</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.18441913585130243</v>
       </c>
       <c r="L12" s="4"/>
@@ -9696,18 +11519,18 @@
         <v>10</v>
       </c>
       <c r="G13" s="4">
-        <f>$G12+$D$8</f>
+        <f t="shared" si="0"/>
         <v>4.7499999999999994E-2</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137.32958212121216</v>
       </c>
       <c r="I13" s="4">
         <v>137.6165</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.20892649227942928</v>
       </c>
       <c r="L13" s="4"/>
@@ -9719,18 +11542,18 @@
         <v>11</v>
       </c>
       <c r="G14" s="4">
-        <f>$G13+$D$8</f>
+        <f t="shared" si="0"/>
         <v>5.2499999999999991E-2</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.75382454545459</v>
       </c>
       <c r="I14" s="4">
         <v>130.05969999999999</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.23573521290561134</v>
       </c>
       <c r="L14" s="4"/>
@@ -9742,18 +11565,18 @@
         <v>12</v>
       </c>
       <c r="G15" s="4">
-        <f>$G14+$D$8</f>
+        <f t="shared" si="0"/>
         <v>5.7499999999999989E-2</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.42049121212128</v>
       </c>
       <c r="I15" s="4">
         <v>121.7436</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26610729758476542</v>
       </c>
       <c r="L15" s="4"/>
@@ -9765,18 +11588,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="4">
-        <f>$G15+$D$8</f>
+        <f t="shared" si="0"/>
         <v>6.2499999999999986E-2</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.32958212121218</v>
       </c>
       <c r="I16" s="4">
         <v>112.66840000000001</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3016283621728526</v>
       </c>
       <c r="L16" s="4"/>
@@ -9788,18 +11611,18 @@
         <v>14</v>
       </c>
       <c r="G17" s="4">
-        <f>$G16+$D$8</f>
+        <f t="shared" si="0"/>
         <v>6.7499999999999991E-2</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102.48109727272731</v>
       </c>
       <c r="I17" s="4">
         <v>102.83450000000001</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.34484674410950467</v>
       </c>
       <c r="L17" s="4"/>
@@ -9811,18 +11634,18 @@
         <v>15</v>
       </c>
       <c r="G18" s="4">
-        <f>$G17+$D$8</f>
+        <f t="shared" si="0"/>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.875036666666716</v>
       </c>
       <c r="I18" s="4">
         <v>92.241990000000001</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.39940482926241899</v>
       </c>
       <c r="L18" s="4"/>
@@ -9834,18 +11657,18 @@
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <f>$G18+$D$8</f>
+        <f t="shared" si="0"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.511400303030328</v>
       </c>
       <c r="I19" s="4">
         <v>80.890979999999999</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.47146080622247499</v>
       </c>
       <c r="L19" s="4"/>
@@ -9857,18 +11680,18 @@
         <v>17</v>
       </c>
       <c r="G20" s="4">
-        <f>$G19+$D$8</f>
+        <f t="shared" si="0"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.390188181818203</v>
       </c>
       <c r="I20" s="4">
         <v>68.781610000000001</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.57233622042563448</v>
       </c>
       <c r="L20" s="4"/>
@@ -9880,18 +11703,18 @@
         <v>18</v>
       </c>
       <c r="G21" s="4">
-        <f>$G20+$D$8</f>
+        <f t="shared" si="0"/>
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.511400303030307</v>
       </c>
       <c r="I21" s="4">
         <v>55.913960000000003</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.72518382669536263</v>
       </c>
       <c r="L21" s="4"/>
@@ -9903,18 +11726,18 @@
         <v>19</v>
       </c>
       <c r="G22" s="4">
-        <f>$G21+$D$8</f>
+        <f t="shared" si="0"/>
         <v>9.2500000000000013E-2</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.875036666666645</v>
       </c>
       <c r="I22" s="4">
         <v>42.288119999999999</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.98646679791966985</v>
       </c>
       <c r="L22" s="4"/>
@@ -9926,18 +11749,18 @@
         <v>20</v>
       </c>
       <c r="G23" s="4">
-        <f>$G22+$D$8</f>
+        <f t="shared" si="0"/>
         <v>9.7500000000000017E-2</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.481097272727265</v>
       </c>
       <c r="I23" s="4">
         <v>27.904150000000001</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5394317158237405</v>
       </c>
       <c r="L23" s="4"/>
@@ -10044,6 +11867,1314 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5AB24E-700E-4FC7-A01B-BF12007542D8}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$7/(2*$D$4))*$D$6+($D$6/(4*$D$5))*($D$7^2-$G4^2)</f>
+        <v>87.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>644.76570000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-634.50226184889721</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(4*$D$5))*($D$7^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>644.53840000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-645.14333459233114</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>643.97019999999998</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-649.40907645259938</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>643.08640000000003</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-655.87749494949492</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>641.89319999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-664.68874321008536</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>640.39319999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-676.03375987606512</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>638.58759999999995</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-690.16727374989</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-101.88110673305934</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>636.47720000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-707.42399999999998</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>634.0625</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-728.24009648390381</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>631.34360000000004</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-753.18340416546698</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>616.23</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-766.00642778720419</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>566.86130000000003</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-733.21924042175579</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>521.69079999999997</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-707.27623519068015</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>474.37270000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-678.54850402144768</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>422.41559999999998</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-641.68994238683126</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>364.64659999999998</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-592.03721903221469</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>300.44200000000001</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-524.01878743177474</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>229.44030000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-429.68018101328119</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>151.41759999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-296.34872801636021</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>66.227900000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-101.88110673305934</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF38F70-F0E9-49CD-8B8D-FC5F52C6F945}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$7/(2*$D$4))*$D$6+($D$6/(4*$D$5))*($D$7^2-$G4^2)</f>
+        <v>87.782670454545467</v>
+      </c>
+      <c r="I4" s="4">
+        <v>964.80799999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>-999.08709202414252</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(4*$D$5))*($D$7^2-$G5^2)</f>
+        <v>86.498579545454547</v>
+      </c>
+      <c r="I5" s="4">
+        <v>962.30799999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>-1012.5130667542492</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>85.93039772727272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>956.05799999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>-1012.5958046119514</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>85.078125</v>
+      </c>
+      <c r="I7" s="4">
+        <v>946.33579999999995</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>-1012.3138879706153</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>83.941761363636374</v>
+      </c>
+      <c r="I8" s="4">
+        <v>933.21079999999995</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>-1011.7360236906674</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>82.521306818181813</v>
+      </c>
+      <c r="I9" s="4">
+        <v>916.71079999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>-1010.8777058266631</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>80.816761363636374</v>
+      </c>
+      <c r="I10" s="4">
+        <v>896.84969999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-1009.7322942262059</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <f>MAX(J4:J23)</f>
+        <v>-115.97265970989416</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>78.828125</v>
+      </c>
+      <c r="I11" s="4">
+        <v>873.6354</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>-1008.2788027750247</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>76.555397727272734</v>
+      </c>
+      <c r="I12" s="4">
+        <v>847.0729</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>-1006.4835728731792</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999996</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>73.998579545454547</v>
+      </c>
+      <c r="I13" s="4">
+        <v>817.16549999999995</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>-1004.2989000863806</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>71.157670454545467</v>
+      </c>
+      <c r="I14" s="4">
+        <v>675.85299999999995</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>-849.79641081944271</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>68.032670454545467</v>
+      </c>
+      <c r="I15" s="4">
+        <v>621.54740000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-813.6013563002399</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>64.623579545454547</v>
+      </c>
+      <c r="I16" s="4">
+        <v>571.85990000000004</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-784.9090440707771</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>60.930397727272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>519.80989999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-753.12080568830868</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>56.953124999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>462.65710000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-712.34717146776416</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>52.691761363636353</v>
+      </c>
+      <c r="I19" s="4">
+        <v>399.1112</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-657.44516727321752</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>48.146306818181806</v>
+      </c>
+      <c r="I20" s="4">
+        <v>328.4862</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-582.26666115946318</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>43.316761363636338</v>
+      </c>
+      <c r="I21" s="4">
+        <v>250.3844</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-478.03121036235484</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000013</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>38.203124999999972</v>
+      </c>
+      <c r="I22" s="4">
+        <v>164.55940000000001</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-330.74853169734189</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000016</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>32.805397727272691</v>
+      </c>
+      <c r="I23" s="4">
+        <v>70.85069</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-115.97265970989416</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10696,6 +13827,830 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046B3AB8-D831-49CB-A5A3-620264151544}">
+  <dimension ref="C2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22.003450000000001</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$D$3+($D$6/(6*$D$4))*($D$7^2-$G4^2)</f>
+        <v>57.849178197055473</v>
+      </c>
+      <c r="I4" s="4">
+        <v>57.703710000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>100*(H4-I4)/H4</f>
+        <v>0.25146112976739915</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SQRT(1/($D$5^2)+2*$H4/$D$5)-1/$D$5</f>
+        <v>56.198521207451677</v>
+      </c>
+      <c r="M4" s="4">
+        <v>56.263039999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <f>100*(L4-M4)/L4</f>
+        <v>-0.11480514284380321</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1.0452906248792999E-3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G23" si="0">$G4+$D$8</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H23" si="1">$D$3+($D$6/(6*$D$4))*($D$7^2-$G5^2)</f>
+        <v>57.659813953417917</v>
+      </c>
+      <c r="I5" s="4">
+        <v>57.561689999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">100*(H5-I5)/H5</f>
+        <v>0.17017736737269096</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L23" si="3">SQRT(1/($D$5^2)+2*$H5/$D$5)-1/$D$5</f>
+        <v>56.019647934922887</v>
+      </c>
+      <c r="M5" s="4">
+        <v>56.128889999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N23" si="4">100*(L5-M5)/L5</f>
+        <v>-0.19500669694321623</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>500000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>57.281085466142812</v>
+      </c>
+      <c r="I6" s="4">
+        <v>57.206629999999997</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1299826383122992</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="3"/>
+        <v>55.661806572363048</v>
+      </c>
+      <c r="M6" s="4">
+        <v>55.793460000000003</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.23652381362397815</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>56.712992735230166</v>
+      </c>
+      <c r="I7" s="4">
+        <v>56.654319999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10345554413622111</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="3"/>
+        <v>55.124807233239835</v>
+      </c>
+      <c r="M7" s="4">
+        <v>55.271450000000002</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.26601955475273198</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>D7/D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>55.955535760679957</v>
+      </c>
+      <c r="I8" s="4">
+        <v>55.908700000000003</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3701746472894786E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="3"/>
+        <v>54.408364457377161</v>
+      </c>
+      <c r="M8" s="4">
+        <v>54.566299999999998</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.2902780559532574</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>55.008714542492207</v>
+      </c>
+      <c r="I9" s="4">
+        <v>54.971339999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>6.7942948318377286E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>53.512096450120339</v>
+      </c>
+      <c r="M9" s="4">
+        <v>53.679139999999997</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.3121603543142108</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>53.872529080666901</v>
+      </c>
+      <c r="I10" s="4">
+        <v>53.843049999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>5.4720060799005314E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>52.435524060532316</v>
+      </c>
+      <c r="M10" s="4">
+        <v>52.610219999999998</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.33316333267883552</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" cm="1">
+        <f t="array" ref="D11">MAX(ABS(N4:N23))</f>
+        <v>1.0388207410962127</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>52.546979375204046</v>
+      </c>
+      <c r="I11" s="4">
+        <v>52.524259999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3236310581857389E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>51.178069492212103</v>
+      </c>
+      <c r="M11" s="4">
+        <v>51.359409999999997</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.35433245057336338</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>51.032065426103642</v>
+      </c>
+      <c r="I12" s="4">
+        <v>51.015259999999998</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2931110985463523E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>49.739054738583718</v>
+      </c>
+      <c r="M12" s="4">
+        <v>49.926270000000002</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.37639489210287941</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999994E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>49.327787233365683</v>
+      </c>
+      <c r="I13" s="4">
+        <v>49.316249999999997</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3388913253101672E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>48.11769973267883</v>
+      </c>
+      <c r="M13" s="4">
+        <v>48.310229999999997</v>
+      </c>
+      <c r="N13" s="4">
+        <f>100*(L13-M13)/L13</f>
+        <v>-0.4001235894292175</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>47.434144796990182</v>
+      </c>
+      <c r="I14" s="4">
+        <v>47.427340000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4345777749982748E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>46.313120199482341</v>
+      </c>
+      <c r="M14" s="4">
+        <v>46.510509999999996</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.42620708703591381</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7499999999999989E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>45.351138116977125</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45.348640000000003</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5083887215327809E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>44.324325196831637</v>
+      </c>
+      <c r="M15" s="4">
+        <v>44.526209999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.45547180306039442</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>43.078767193326513</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43.080210000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.349229254897204E-3</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>42.150214328599077</v>
+      </c>
+      <c r="M16" s="4">
+        <v>42.356319999999997</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.48897894040144008</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>40.617032026038352</v>
+      </c>
+      <c r="I17" s="4">
+        <v>40.622120000000002</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2526700519104298E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
+        <v>39.789574611440571</v>
+      </c>
+      <c r="M17" s="4">
+        <v>39.999659999999999</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.52799103938905245</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>37.965932615112635</v>
+      </c>
+      <c r="I18" s="4">
+        <v>37.974400000000003</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.2302586303377805E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>37.241076973708346</v>
+      </c>
+      <c r="M18" s="4">
+        <v>37.454949999999997</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.57429334399389764</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>35.125468960549377</v>
+      </c>
+      <c r="I19" s="4">
+        <v>35.137090000000001</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.3084368108155286E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="3"/>
+        <v>34.503272362173675</v>
+      </c>
+      <c r="M19" s="4">
+        <v>34.720779999999998</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.63039712738893383</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>32.095641062348562</v>
+      </c>
+      <c r="I20" s="4">
+        <v>32.110219999999998</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.542341940799674E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>31.574587428939367</v>
+      </c>
+      <c r="M20" s="4">
+        <v>31.795590000000001</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.69993811180593968</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>28.876448920510192</v>
+      </c>
+      <c r="I21" s="4">
+        <v>28.893809999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.0121933751607896E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="3"/>
+        <v>28.453319767288235</v>
+      </c>
+      <c r="M21" s="4">
+        <v>28.677720000000001</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.78866098770573156</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>25.467892535034274</v>
+      </c>
+      <c r="I22" s="4">
+        <v>25.48789</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.8520297422401131E-2</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="3"/>
+        <v>25.137632661160637</v>
+      </c>
+      <c r="M22" s="4">
+        <v>25.36534</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.90584241526922249</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7500000000000017E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>21.86997190592081</v>
+      </c>
+      <c r="I23" s="4">
+        <v>21.89246</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.10282635101648979</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="3"/>
+        <v>21.625549308408267</v>
+      </c>
+      <c r="M23" s="4">
+        <v>21.850200000000001</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.0388207410962127</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
